--- a/week1/Domain-Model.xlsx
+++ b/week1/Domain-Model.xlsx
@@ -48,9 +48,6 @@
     <t>id (integer)</t>
   </si>
   <si>
-    <t>movies</t>
-  </si>
-  <si>
     <t>authors</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>restricted</t>
+  </si>
+  <si>
+    <t>articles</t>
   </si>
 </sst>
 </file>
@@ -526,14 +526,14 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="17">
@@ -559,7 +559,7 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N2" s="1"/>
     </row>
@@ -580,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -592,7 +592,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3">
         <v>42104</v>
@@ -604,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="7" spans="1:14" ht="17">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N7" s="1"/>
     </row>
@@ -628,10 +628,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -642,18 +642,18 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -661,10 +661,10 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -672,10 +672,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -686,7 +686,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -694,10 +694,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -705,15 +705,15 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
         <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -721,7 +721,7 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -737,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -745,7 +745,7 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -753,7 +753,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -761,7 +761,7 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
